--- a/src/test/doc/文交所信息.xlsx
+++ b/src/test/doc/文交所信息.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
+    <sheet name="统计表（延后）" sheetId="1" r:id="rId1"/>
+    <sheet name="客户基本信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>表格 1</t>
   </si>
@@ -74,13 +75,57 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>文交所基本信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字母</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -113,6 +158,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,7 +216,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -181,6 +239,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1507,9 +1571,9 @@
   </sheetPr>
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1543,7 +1607,7 @@
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:22" ht="20.65" customHeight="1">
+    <row r="2" spans="1:22" ht="30.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2120,4 +2184,40 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="27.75" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/doc/文交所信息.xlsx
+++ b/src/test/doc/文交所信息.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>表格 1</t>
   </si>
@@ -120,12 +125,31 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>广商所</t>
+  </si>
+  <si>
+    <t>南方文交所</t>
+  </si>
+  <si>
+    <t>天津文交所</t>
+  </si>
+  <si>
+    <t>中南文交所</t>
+  </si>
+  <si>
+    <t>金马甲</t>
+  </si>
+  <si>
+    <t>文交所信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -145,6 +169,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -216,7 +241,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -235,17 +260,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,6 +352,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1565,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1576,38 +1615,38 @@
       <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="256" width="9.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="1:22" ht="30.75" customHeight="1">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1669,7 +1708,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="20.65" customHeight="1">
+    <row r="3" spans="1:22" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1693,7 +1732,7 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="20.45" customHeight="1">
+    <row r="4" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1717,7 +1756,7 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" ht="20.45" customHeight="1">
+    <row r="5" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1741,7 +1780,7 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" ht="20.45" customHeight="1">
+    <row r="6" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1765,7 +1804,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="20.45" customHeight="1">
+    <row r="7" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1789,7 +1828,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" ht="20.45" customHeight="1">
+    <row r="8" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1813,7 +1852,7 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" ht="20.45" customHeight="1">
+    <row r="9" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1837,7 +1876,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" ht="20.45" customHeight="1">
+    <row r="10" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1861,7 +1900,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="20.45" customHeight="1">
+    <row r="11" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1885,7 +1924,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="20.45" customHeight="1">
+    <row r="12" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1909,7 +1948,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" ht="20.45" customHeight="1">
+    <row r="13" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1933,7 +1972,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" ht="20.45" customHeight="1">
+    <row r="14" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1957,7 +1996,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="20.45" customHeight="1">
+    <row r="15" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1981,7 +2020,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" ht="20.45" customHeight="1">
+    <row r="16" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2005,7 +2044,7 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" ht="20.45" customHeight="1">
+    <row r="17" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2029,7 +2068,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" ht="20.45" customHeight="1">
+    <row r="18" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2053,7 +2092,7 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" ht="20.45" customHeight="1">
+    <row r="19" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2077,7 +2116,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" ht="20.45" customHeight="1">
+    <row r="20" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2101,7 +2140,7 @@
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" ht="20.45" customHeight="1">
+    <row r="21" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2125,7 +2164,7 @@
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" ht="20.45" customHeight="1">
+    <row r="22" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2149,7 +2188,7 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" ht="20.45" customHeight="1">
+    <row r="23" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2187,34 +2226,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.69921875" customWidth="1"/>
     <col min="3" max="3" width="12.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="27.75" customHeight="1">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="11">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="11">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
